--- a/ParametricGraph/RosaviationStart_mini.xlsx
+++ b/ParametricGraph/RosaviationStart_mini.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,8 +475,8 @@
         <v>6000</v>
       </c>
       <c r="B2">
-        <f>3*2*3*3*2*3*3*3*2</f>
-        <v>5832</v>
+        <f>3*2*3*3*2*3*2*3*3*2</f>
+        <v>11664</v>
       </c>
       <c r="C2">
         <v>0</v>
